--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_71.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_71.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7006</v>
+        <v>2.519</v>
       </c>
       <c r="J3" t="n">
-        <v>28.38</v>
+        <v>26.77</v>
       </c>
       <c r="K3" t="n">
-        <v>1376.17</v>
+        <v>1210.68</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>3.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1383.2699</v>
+        <v>1270.0555</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4627</v>
+        <v>2.2818</v>
       </c>
       <c r="J4" t="n">
-        <v>26.15</v>
+        <v>26.39</v>
       </c>
       <c r="K4" t="n">
-        <v>1156.27</v>
+        <v>1081.26</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>2.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1277.2548</v>
+        <v>1113.2817</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>11.9468</v>
+        <v>11.2373</v>
       </c>
       <c r="J5" t="n">
-        <v>27.65</v>
+        <v>27.02</v>
       </c>
       <c r="K5" t="n">
-        <v>5930.19</v>
+        <v>5451.2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.34</v>
+        <v>11.3</v>
       </c>
       <c r="R5" t="n">
-        <v>5155.2271</v>
+        <v>4724.5804</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>14.1799</v>
+        <v>13.3284</v>
       </c>
       <c r="J6" t="n">
-        <v>29.24</v>
+        <v>27.71</v>
       </c>
       <c r="K6" t="n">
-        <v>7443.15</v>
+        <v>6629.93</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.83</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>4218.3278</v>
+        <v>3916.296</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>6.1262</v>
+        <v>5.8496</v>
       </c>
       <c r="J7" t="n">
-        <v>33.14</v>
+        <v>32.56</v>
       </c>
       <c r="K7" t="n">
-        <v>3644.78</v>
+        <v>3419.49</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.77</v>
+        <v>6.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2949.8177</v>
+        <v>2748.3789</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>70.5047</v>
+        <v>67.7564</v>
       </c>
       <c r="J8" t="n">
-        <v>4.52</v>
+        <v>4.25</v>
       </c>
       <c r="K8" t="n">
-        <v>5724.12</v>
+        <v>5174.37</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8.949999999999999</v>
+        <v>12.06</v>
       </c>
       <c r="R8" t="n">
-        <v>5532.2216</v>
+        <v>5042.3345</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>16.8399</v>
+        <v>16.4748</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="n">
-        <v>635.97</v>
+        <v>556.6799999999999</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>495.8913</v>
+        <v>421.4388</v>
       </c>
     </row>
   </sheetData>
